--- a/Project/Assets/Config/Attack.xlsx
+++ b/Project/Assets/Config/Attack.xlsx
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="922" uniqueCount="519">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1260,50 +1260,832 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlastBlood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttackedFallDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitFallDown</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜魂之手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11051</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GrabBlast</t>
+  </si>
+  <si>
+    <t>噬魂之手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttacked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11052</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11051|11052|11053</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔狱血刹1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔狱血刹2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动切到下个攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HellBenter_Start</t>
+  </si>
+  <si>
+    <t>HellBenter_GrowingSword</t>
+  </si>
+  <si>
+    <t>autoNextAttack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiveBlood</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嗜血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11071</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffEnableTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生效时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GiveBlood_Buff</t>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5|85</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitForObjectEnd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼剑士普攻1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼剑士普攻</t>
+  </si>
+  <si>
+    <t>上挑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>三段斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔狱血刹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>占技能位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120|80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitMove</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11012</t>
+  </si>
+  <si>
+    <t>11013</t>
+  </si>
+  <si>
+    <t>十字斩*狂战1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字斩*狂战2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字斩*狂战3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>180</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011|11012|11013</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.45</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>140|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-60|120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130|80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skillNameText</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_atk_01</t>
+  </si>
+  <si>
+    <t>sm_atk_02</t>
+  </si>
+  <si>
+    <t>sm_atk_03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_triple1</t>
+  </si>
+  <si>
+    <t>sm_triple2</t>
+  </si>
+  <si>
+    <t>sm_triple3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_upslash</t>
+  </si>
+  <si>
+    <t>sm_outrage_break_01</t>
+  </si>
+  <si>
+    <t>0|350</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普通攻击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哥布林普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰哥布林普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜哥布林普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害模式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttacked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttackedFly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttacked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>destroyAfterCollison</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmAttackObjectMoveMode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否等特效播完再销毁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰撞后是否消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤子牛普攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤子牛技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锤子牛技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_FireRock</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_IceMissile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>180</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>0.7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HitMoveDist</t>
+  </si>
+  <si>
+    <t>400|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_CrashWave_Bottom</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_CrashWave</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|151</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackObjectAppearTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击物出现时刻，从技能触发开始算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>0.2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlastBlood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttackedFallDown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitFallDown</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜魂之手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11051</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GrabBlast</t>
-  </si>
-  <si>
-    <t>噬魂之手</t>
+    <t>0,100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmDamageStatusEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageStatusEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害移动效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害状态效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageStatusEffectProbability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmDamageMoveEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageMoveEffect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageStatusEffectDuration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>持续时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttacked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BeAttacked</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frozen</t>
+  </si>
+  <si>
+    <t>Frozen</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damagePercent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击百分比伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定伤害值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageFixed</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1315,39 +2097,58 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BeAttacked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11052</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11051|11052|11053</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔狱血刹1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔狱血刹2</t>
+    <t>100</t>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>110</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stun</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Freeze</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1355,7 +2156,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>自动切到下个攻击</t>
+    <t>couldInterrupt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可被打断</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1363,29 +2168,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HellBenter_Start</t>
-  </si>
-  <si>
-    <t>HellBenter_GrowingSword</t>
-  </si>
-  <si>
-    <t>autoNextAttack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
+    <t>isGod</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否无敌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>instruction</t>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1393,63 +2195,143 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>attack</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击速度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiveBlood</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嗜血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11071</t>
+    <t>castTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>castCombianKey</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放组合键</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥动武器召唤血十字攻击敌人，有击退效果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向敌人发出从下往上的挑击，可以击飞敌人。攻击时有霸体判断（不会被打断）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扯起敌人后释放裂波攻击，裂波攻击会对距裂波中心100码范围内的敌人都造成伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向周围敌人爆发血气，血气会击飞敌人，造成多段伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤出血之剑并猛力撞击地面，产生大面积的冲击波击飞敌人，并召唤出岩浆从地底爆发而出，对敌人造成多段伤害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用鬼手吸收前方敌人的血气，并将其抓入手中，吸收的血气经过压缩瞬间释放出来将敌人喷出。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血十字出现并切割</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血十字向前推动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血气持续爆发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血气爆发瞬间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大范围冲击波击飞敌人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩浆爆发</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吸收被抓取的敌人的血气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>积攒的血气被压缩释放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在快速移动中对敌人释放斩击，可以进行3次斩击，可作为逃跑闪避技能。注意，释放后面两段，只需按方向键即可，不需要按组合键。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>后跳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>S+←或→</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓+D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>向后跳跃一小段距离。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入格挡状态，受到的所有伤害都将变为1。格挡状态不能免疫眩晕、冰冻等异常状态。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击移动到指定位置，相对于释放者</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1457,97 +2339,239 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffEnableTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生效时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GiveBlood_Buff</t>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-5|85</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>waitForObjectEnd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷却时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>图标</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼剑士普攻1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼剑士普攻</t>
-  </si>
-  <si>
-    <t>上挑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>三段斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔狱血刹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>占技能位置</t>
+    <t>Attacker</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageCenterType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmDamageCenterType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害中心类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageArenaType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageCenterPos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>130|80|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150|0|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Target</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害中心位置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|90|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sphere</t>
+  </si>
+  <si>
+    <t>120|80|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attackObjectAppearPos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmDamageArenaType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥动武器召唤血十字攻击敌人，有击退效果。释放技能后，0.2秒内再次释放该技能，可以进行一次追击。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发出血气进行追击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageArenaSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vector3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害区域尺寸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>damageArenaRadius</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将周围敌人扯起聚集到一点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放裂波</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>爆炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrontArena</t>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>165|-23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100|0|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actorCastSoundName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色施放音效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sm_gorecross</t>
+  </si>
+  <si>
+    <t>hitSoundName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/boodong_hit_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/boodong_hit_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/gorecross_hit_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/gorecross_hit_02</t>
+  </si>
+  <si>
+    <t>effect/tslash_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/upper_slash_01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/upper_slash_02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect/p_saya_ice_hit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1555,1019 +2579,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>duration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120|80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitMove</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11012</t>
-  </si>
-  <si>
-    <t>11013</t>
-  </si>
-  <si>
-    <t>十字斩*狂战1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字斩*狂战2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字斩*狂战3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11011|11012|11013</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.45</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>140|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-60|120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>130|80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skillNameText</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>soundName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_atk_01</t>
-  </si>
-  <si>
-    <t>sm_atk_02</t>
-  </si>
-  <si>
-    <t>sm_atk_03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>音效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_triple1</t>
-  </si>
-  <si>
-    <t>sm_triple2</t>
-  </si>
-  <si>
-    <t>sm_triple3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_upslash</t>
-  </si>
-  <si>
-    <t>sm_gorecross</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sm_outrage_break_01</t>
-  </si>
-  <si>
-    <t>sm_boodong_explosion</t>
-  </si>
-  <si>
-    <t>0.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|350</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boodong_hit_01</t>
-  </si>
-  <si>
-    <t>boodong_hit_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boodong_hit_02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林普攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林普通攻击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>哥布林普攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰哥布林普攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰霜哥布林普攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害模式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttacked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttackedFly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttacked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>boodong_hit_01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>destroyAfterCollison</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmAttackObjectMoveMode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否等特效播完再销毁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>碰撞后是否消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤子牛普攻</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤子牛技能1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>锤子牛技能2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skill2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_FireRock</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_IceMissile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>HitMoveDist</t>
-  </si>
-  <si>
-    <t>400|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_CrashWave_Bottom</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Common_CrashWave</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|151</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackObjectAppearTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击物出现时刻，从技能触发开始算</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmDamageStatusEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageStatusEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害移动效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害状态效果</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageStatusEffectProbability</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmDamageMoveEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageMoveEffect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageStatusEffectDuration</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttacked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BeAttacked</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Frozen</t>
-  </si>
-  <si>
-    <t>Frozen</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damagePercent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击百分比伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定伤害值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageFixed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>110</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>120</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>130</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>None</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stun</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Freeze</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>couldInterrupt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可被打断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>isGod</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否无敌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>instruction</t>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castTime</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>castCombianKey</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放组合键</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥动武器召唤血十字攻击敌人，有击退效果。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向敌人发出从下往上的挑击，可以击飞敌人。攻击时有霸体判断（不会被打断）。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>扯起敌人后释放裂波攻击，裂波攻击会对距裂波中心100码范围内的敌人都造成伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向周围敌人爆发血气，血气会击飞敌人，造成多段伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤出血之剑并猛力撞击地面，产生大面积的冲击波击飞敌人，并召唤出岩浆从地底爆发而出，对敌人造成多段伤害。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用鬼手吸收前方敌人的血气，并将其抓入手中，吸收的血气经过压缩瞬间释放出来将敌人喷出。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击描述</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血十字出现并切割</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血十字向前推动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血气持续爆发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血气爆发瞬间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大范围冲击波击飞敌人</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>岩浆爆发</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>吸收被抓取的敌人的血气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>积攒的血气被压缩释放</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>在快速移动中对敌人释放斩击，可以进行3次斩击，可作为逃跑闪避技能。注意，释放后面两段，只需按方向键即可，不需要按组合键。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>后跳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>S+←或→</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>↓+D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>向后跳跃一小段距离。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>进入格挡状态，受到的所有伤害都将变为1。格挡状态不能免疫眩晕、冰冻等异常状态。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>被击移动到指定位置，相对于释放者</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attacker</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageCenterType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmDamageCenterType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害中心类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageArenaType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageCenterPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>130|80|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150|0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害中心位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|90|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sphere</t>
-  </si>
-  <si>
-    <t>120|80|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>attackObjectAppearPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmDamageArenaType</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>挥动武器召唤血十字攻击敌人，有击退效果。释放技能后，0.2秒内再次释放该技能，可以进行一次追击。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>发出血气进行追击</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageArenaSize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Vector3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害区域尺寸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>damageArenaRadius</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>将周围敌人扯起聚集到一点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放裂波</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>爆炸</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>FrontArena</t>
-  </si>
-  <si>
-    <t>300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>165|-23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100|0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>150</t>
+    <t>250</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3210,7 +3226,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3252,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="H2" s="30" t="s">
         <v>0</v>
@@ -3290,37 +3306,37 @@
         <v>119</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="30" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="F3" s="41" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="H3" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="J3" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="K3" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="L3" s="30" t="s">
         <v>225</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="30" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="30" customFormat="1" x14ac:dyDescent="0.15">
@@ -3328,22 +3344,22 @@
         <v>118</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="F4" s="30" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -3351,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C5" s="40">
         <v>9</v>
@@ -3365,7 +3381,7 @@
         <v>100001</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" s="40">
         <v>0</v>
@@ -3376,7 +3392,7 @@
         <v>100002</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C7" s="40">
         <v>94</v>
@@ -3385,10 +3401,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="40" t="s">
-        <v>464</v>
+        <v>444</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -3405,7 +3421,7 @@
         <v>3</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
@@ -3419,10 +3435,10 @@
         <v>128</v>
       </c>
       <c r="D9" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="40" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
@@ -3430,19 +3446,19 @@
         <v>100005</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C10" s="40">
         <v>18</v>
       </c>
       <c r="D10" s="40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -3450,7 +3466,7 @@
         <v>100006</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>466</v>
+        <v>446</v>
       </c>
       <c r="C11" s="40">
         <v>0</v>
@@ -3459,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>471</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
@@ -3470,7 +3486,7 @@
         <v>100007</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="C12" s="40">
         <v>24</v>
@@ -3479,10 +3495,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3496,10 +3512,10 @@
         <v>132</v>
       </c>
       <c r="D13" s="40">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G13" s="40" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3513,10 +3529,10 @@
         <v>178</v>
       </c>
       <c r="D14" s="40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G14" s="40" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3530,10 +3546,10 @@
         <v>154</v>
       </c>
       <c r="D15" s="40">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -3541,16 +3557,16 @@
         <v>100105</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C16" s="40">
         <v>98</v>
       </c>
       <c r="D16" s="40">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
@@ -3558,7 +3574,7 @@
         <v>100106</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C17" s="40">
         <v>436</v>
@@ -3572,7 +3588,7 @@
         <v>100107</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C18" s="40">
         <v>210</v>
@@ -3586,7 +3602,7 @@
         <v>200101</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="D19" s="40">
         <v>0</v>
@@ -3597,7 +3613,7 @@
         <v>200301</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D20" s="40">
         <v>0</v>
@@ -3608,7 +3624,7 @@
         <v>200401</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="D21" s="40">
         <v>0</v>
@@ -3619,7 +3635,7 @@
         <v>201801</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D22" s="40">
         <v>0</v>
@@ -3630,7 +3646,7 @@
         <v>201802</v>
       </c>
       <c r="B23" s="40" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D23" s="40">
         <v>15</v>
@@ -3641,7 +3657,7 @@
         <v>201803</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D24" s="40">
         <v>20</v>
@@ -3660,14 +3676,14 @@
   <dimension ref="A1:Z28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="9" style="33"/>
     <col min="3" max="3" width="11.25" style="34" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="33" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="33" customWidth="1"/>
     <col min="5" max="5" width="7.375" style="5" customWidth="1"/>
     <col min="6" max="6" width="6.875" style="34" customWidth="1"/>
     <col min="7" max="7" width="13.125" style="33" customWidth="1"/>
@@ -3727,16 +3743,16 @@
         <v>1</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="P1" s="17">
         <v>1</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="R1" s="17">
         <v>1</v>
@@ -3774,10 +3790,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>7</v>
@@ -3789,37 +3805,37 @@
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>114</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P2" s="17" t="s">
         <v>12</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="R2" s="17" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="17" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="T2" s="19" t="s">
         <v>125</v>
@@ -3850,11 +3866,11 @@
       <c r="C3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>297</v>
+      <c r="D3" s="25" t="s">
+        <v>494</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F3" s="25" t="s">
         <v>8</v>
@@ -3866,31 +3882,31 @@
         <v>104</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="P3" s="25" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="R3" s="25" t="s">
         <v>23</v>
@@ -3928,10 +3944,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>299</v>
+        <v>495</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F4" s="30" t="s">
         <v>9</v>
@@ -3943,31 +3959,31 @@
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>115</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P4" s="17" t="s">
         <v>17</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="R4" s="17" t="s">
         <v>24</v>
@@ -4002,10 +4018,10 @@
         <v>100001</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E5" s="3"/>
       <c r="G5" s="18" t="s">
@@ -4014,21 +4030,21 @@
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P5" s="18">
         <v>0.5</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R5" s="18">
         <v>10011</v>
@@ -4050,7 +4066,7 @@
         <v>19</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E6" s="3"/>
       <c r="G6" s="18" t="s">
@@ -4059,21 +4075,21 @@
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L6" s="5"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P6" s="18">
         <v>0.5</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R6" s="18">
         <v>10012</v>
@@ -4098,7 +4114,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="E7" s="3"/>
       <c r="G7" s="18" t="s">
@@ -4107,18 +4123,18 @@
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R7" s="18">
         <v>10013</v>
@@ -4137,23 +4153,23 @@
         <v>100002</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G8" s="33" t="s">
         <v>39</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O8" s="4"/>
       <c r="Q8" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R8" s="33">
         <v>10021</v>
@@ -4173,7 +4189,7 @@
         <v>89</v>
       </c>
       <c r="D9" s="33" t="s">
-        <v>309</v>
+        <v>496</v>
       </c>
       <c r="G9" s="33" t="s">
         <v>110</v>
@@ -4183,14 +4199,14 @@
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O9" s="4"/>
       <c r="Q9" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R9" s="37" t="s">
         <v>147</v>
@@ -4216,17 +4232,17 @@
         <v>42</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O10" s="4"/>
       <c r="Q10" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R10" s="33" t="s">
         <v>148</v>
@@ -4246,7 +4262,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G11" s="33" t="s">
         <v>94</v>
@@ -4255,20 +4271,20 @@
         <v>94</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R11" s="33">
         <v>10051</v>
@@ -4288,7 +4304,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G12" s="33" t="s">
         <v>95</v>
@@ -4297,20 +4313,20 @@
         <v>102</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O12" s="4"/>
       <c r="P12" s="18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R12" s="33">
         <v>10051</v>
@@ -4330,7 +4346,7 @@
         <v>93</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G13" s="33" t="s">
         <v>96</v>
@@ -4339,17 +4355,17 @@
         <v>103</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O13" s="4"/>
       <c r="Q13" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R13" s="33">
         <v>10051</v>
@@ -4375,22 +4391,22 @@
         <v>117</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P14" s="33">
         <v>0.2</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R14" s="33" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="S14" s="33" t="s">
         <v>143</v>
@@ -4424,16 +4440,16 @@
         <v>116</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R15" s="33">
         <v>11021</v>
@@ -4467,25 +4483,25 @@
         <v>167</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>166</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>168</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P16" s="33">
         <v>0.3</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R16" s="33" t="s">
         <v>169</v>
@@ -4505,7 +4521,7 @@
         <v>176</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G17" s="33" t="s">
         <v>175</v>
@@ -4514,19 +4530,19 @@
         <v>175</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>177</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R17" s="33" t="s">
         <v>178</v>
@@ -4543,28 +4559,28 @@
         <v>100105</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R18" s="33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="S18" s="18" t="s">
         <v>106</v>
@@ -4578,31 +4594,28 @@
         <v>100106</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>311</v>
+        <v>201</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="S19" s="18" t="s">
         <v>106</v>
@@ -4616,22 +4629,22 @@
         <v>100106</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="S20" s="33" t="s">
         <v>120</v>
@@ -4645,25 +4658,25 @@
         <v>100107</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G21" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H21" s="33" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R21" s="33">
         <v>11071</v>
@@ -4680,10 +4693,7 @@
         <v>200101</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>319</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E22" s="3"/>
       <c r="G22" s="18" t="s">
@@ -4692,12 +4702,12 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>98</v>
@@ -4706,7 +4716,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="R22" s="18">
         <v>20010101</v>
@@ -4725,28 +4735,28 @@
         <v>200301</v>
       </c>
       <c r="C23" s="39" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="E23" s="3"/>
       <c r="G23" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>57</v>
@@ -4755,7 +4765,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="R23" s="18">
         <v>20030101</v>
@@ -4772,7 +4782,7 @@
       <c r="V23" s="31"/>
       <c r="W23" s="32"/>
       <c r="X23" s="18" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:24" s="18" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4783,37 +4793,37 @@
         <v>200401</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E24" s="3"/>
       <c r="G24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="5" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="P24" s="18">
         <v>100</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="R24" s="18">
         <v>20040101</v>
@@ -4830,7 +4840,7 @@
       <c r="V24" s="31"/>
       <c r="W24" s="32"/>
       <c r="X24" s="18" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -4841,25 +4851,25 @@
         <v>201801</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G25" s="18" t="s">
         <v>34</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>510</v>
+        <v>490</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="Q25" s="3"/>
       <c r="R25" s="33">
@@ -4877,19 +4887,19 @@
         <v>201802</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G26" s="33" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="Q26" s="3"/>
       <c r="R26" s="33">
@@ -4907,25 +4917,25 @@
         <v>201803</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G27" s="33" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="M27" s="5" t="s">
+      <c r="O27" s="5" t="s">
         <v>365</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>376</v>
       </c>
       <c r="R27" s="33">
         <v>20180301</v>
@@ -4950,7 +4960,7 @@
   <dimension ref="A1:AC32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4958,7 +4968,7 @@
     <col min="1" max="2" width="9" style="5"/>
     <col min="3" max="3" width="11.25" style="34" customWidth="1"/>
     <col min="4" max="5" width="7" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="5" customWidth="1"/>
     <col min="7" max="16" width="9" style="5"/>
     <col min="17" max="17" width="13.875" style="5" customWidth="1"/>
     <col min="18" max="18" width="15.625" style="5" customWidth="1"/>
@@ -4985,19 +4995,19 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G1" s="1">
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="I1" s="1">
         <v>1</v>
@@ -5009,10 +5019,10 @@
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>482</v>
+        <v>462</v>
       </c>
       <c r="N1" s="1">
         <v>1</v>
@@ -5021,7 +5031,7 @@
         <v>1</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>52</v>
@@ -5033,13 +5043,13 @@
         <v>58</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>382</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>393</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>86</v>
@@ -5066,22 +5076,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -5093,19 +5103,19 @@
         <v>21</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>478</v>
+        <v>458</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>483</v>
+        <v>463</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>1</v>
@@ -5114,16 +5124,16 @@
         <v>76</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>7</v>
@@ -5150,22 +5160,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>297</v>
+        <v>497</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>25</v>
@@ -5177,19 +5187,19 @@
         <v>29</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>484</v>
+        <v>464</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>481</v>
+        <v>461</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
       <c r="Q3" s="2" t="s">
         <v>79</v>
@@ -5198,16 +5208,16 @@
         <v>78</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="W3" s="2" t="s">
         <v>83</v>
@@ -5237,22 +5247,22 @@
         <v>33</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>26</v>
@@ -5264,10 +5274,10 @@
         <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>479</v>
+        <v>459</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>489</v>
+        <v>469</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>32</v>
@@ -5276,7 +5286,7 @@
         <v>31</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>80</v>
@@ -5285,22 +5295,22 @@
         <v>81</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="T4" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>381</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>88</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="Y4" s="1" t="s">
         <v>48</v>
@@ -5327,34 +5337,34 @@
       </c>
       <c r="C5" s="18"/>
       <c r="F5" s="3" t="s">
-        <v>315</v>
+        <v>503</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K5" s="3">
         <v>1</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O5" s="3">
         <v>180</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="S5" s="3" t="s">
         <v>74</v>
@@ -5386,13 +5396,13 @@
       </c>
       <c r="C6" s="18"/>
       <c r="F6" s="3" t="s">
-        <v>315</v>
+        <v>503</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I6" s="3">
         <v>0.2</v>
@@ -5401,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O6" s="3">
         <v>180</v>
@@ -5445,25 +5455,25 @@
       </c>
       <c r="C7" s="18"/>
       <c r="F7" s="3" t="s">
-        <v>317</v>
+        <v>503</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K7" s="3">
         <v>1</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O7" s="3">
         <v>180</v>
@@ -5505,13 +5515,13 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I8" s="4">
         <v>0.3</v>
@@ -5520,11 +5530,11 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O8" s="3">
         <v>180</v>
@@ -5556,7 +5566,7 @@
         <v>49</v>
       </c>
       <c r="AB8" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
@@ -5567,16 +5577,16 @@
         <v>37</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="4" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I9" s="4">
         <v>0.3</v>
@@ -5585,14 +5595,14 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M9" s="3"/>
       <c r="N9" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="3" t="s">
@@ -5632,16 +5642,16 @@
         <v>38</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I10" s="4">
         <v>0.3</v>
@@ -5650,14 +5660,14 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M10" s="3"/>
       <c r="N10" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
       <c r="P10" s="3"/>
       <c r="Q10" s="3" t="s">
@@ -5697,16 +5707,16 @@
         <v>43</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="4" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I11" s="4">
         <v>0</v>
@@ -5715,11 +5725,11 @@
         <v>56</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O11" s="3">
         <v>180</v>
@@ -5743,7 +5753,7 @@
         <v>55</v>
       </c>
       <c r="X11" s="13" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="Y11" s="14" t="s">
         <v>50</v>
@@ -5762,36 +5772,36 @@
         <v>41</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>315</v>
+        <v>498</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>413</v>
+        <v>512</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O12" s="3">
         <v>180</v>
@@ -5804,7 +5814,7 @@
         <v>82</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="T12" s="5" t="s">
         <v>170</v>
@@ -5831,33 +5841,33 @@
         <v>41</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>315</v>
+        <v>499</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>412</v>
+        <v>510</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>99</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>485</v>
+        <v>465</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O13" s="3">
         <v>180</v>
@@ -5899,13 +5909,13 @@
         <v>97</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>315</v>
+        <v>502</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>447</v>
+        <v>517</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>99</v>
@@ -5914,11 +5924,11 @@
         <v>52</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>100</v>
@@ -5930,7 +5940,7 @@
         <v>82</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>170</v>
@@ -5938,7 +5948,7 @@
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="AC14" s="5" t="s">
         <v>101</v>
@@ -5949,32 +5959,34 @@
         <v>159</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>453</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>435</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>500</v>
+      </c>
       <c r="G15" s="5" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>162</v>
@@ -5994,46 +6006,48 @@
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB15" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>454</v>
-      </c>
-      <c r="F16" s="3"/>
+        <v>436</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>501</v>
+      </c>
       <c r="G16" s="5" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>52</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O16" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="3" t="s">
         <v>82</v>
@@ -6050,45 +6064,45 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AB16" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>315</v>
+        <v>501</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>410</v>
+        <v>509</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="N17" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>82</v>
@@ -6105,10 +6119,10 @@
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="AB17" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
@@ -6119,28 +6133,26 @@
         <v>160</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>496</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>315</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="H18" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>161</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>492</v>
+        <v>472</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>163</v>
@@ -6152,7 +6164,7 @@
         <v>82</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="T18" s="5" t="s">
         <v>170</v>
@@ -6174,16 +6186,14 @@
         <v>167</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>459</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>315</v>
-      </c>
+        <v>439</v>
+      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="5" t="s">
-        <v>414</v>
+        <v>511</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>171</v>
@@ -6192,11 +6202,11 @@
         <v>52</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M19" s="3"/>
       <c r="N19" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O19" s="5" t="s">
         <v>173</v>
@@ -6219,7 +6229,7 @@
         <v>171</v>
       </c>
       <c r="AB19" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
@@ -6230,32 +6240,30 @@
         <v>167</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>455</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>317</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="F20" s="3"/>
       <c r="G20" s="5" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>312</v>
+        <v>516</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="K20" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>456</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="M20" s="3"/>
       <c r="N20" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>173</v>
@@ -6278,7 +6286,7 @@
         <v>171</v>
       </c>
       <c r="AB20" s="12" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
@@ -6289,16 +6297,14 @@
         <v>176</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>460</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>315</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="F21" s="3"/>
       <c r="G21" s="5" t="s">
-        <v>415</v>
+        <v>508</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I21" s="5" t="s">
         <v>181</v>
@@ -6307,25 +6313,25 @@
         <v>181</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="N21" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>182</v>
+        <v>518</v>
       </c>
       <c r="Q21" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="S21" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T21" s="5" t="s">
         <v>170</v>
@@ -6333,10 +6339,10 @@
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB21" s="12" t="s">
         <v>184</v>
-      </c>
-      <c r="AB21" s="12" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
@@ -6347,37 +6353,35 @@
         <v>176</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>461</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>315</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="F22" s="3"/>
       <c r="G22" s="5" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>486</v>
+        <v>466</v>
       </c>
       <c r="N22" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>183</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>77</v>
@@ -6394,39 +6398,39 @@
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AB22" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C23" s="39"/>
       <c r="F23" s="3"/>
       <c r="H23" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>508</v>
+        <v>488</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>82</v>
@@ -6443,10 +6447,10 @@
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="X23" s="15" t="s">
-        <v>474</v>
+        <v>454</v>
       </c>
       <c r="Y23" s="14" t="s">
         <v>49</v>
@@ -6454,52 +6458,50 @@
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="39" t="s">
-        <v>462</v>
-      </c>
-      <c r="F24" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="Q24" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="O24" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>82</v>
       </c>
       <c r="S24" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="T24" s="5" t="s">
         <v>170</v>
@@ -6507,49 +6509,47 @@
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="9" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
       <c r="Y24" s="14"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>463</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>316</v>
-      </c>
+        <v>443</v>
+      </c>
+      <c r="F25" s="3"/>
       <c r="G25" s="5" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="N25" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="Q25" s="3" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="R25" s="3" t="s">
         <v>77</v>
@@ -6563,45 +6563,43 @@
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AB25" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="F26" s="3"/>
       <c r="G26" s="5" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>57</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="S26" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="T26" s="5" t="s">
         <v>170</v>
@@ -6612,53 +6610,53 @@
         <v>20010101</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="C27" s="34"/>
       <c r="F27" s="3" t="s">
-        <v>330</v>
+        <v>498</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K27" s="3">
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="N27" s="5" t="s">
-        <v>507</v>
+        <v>487</v>
       </c>
       <c r="O27" s="3">
         <v>180</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>429</v>
+        <v>507</v>
       </c>
       <c r="V27" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="W27" s="8" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="X27" s="13"/>
       <c r="Y27" s="14"/>
@@ -6677,17 +6675,17 @@
         <v>20030101</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="C28" s="34"/>
       <c r="F28" s="3" t="s">
-        <v>330</v>
+        <v>505</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>99</v>
@@ -6696,28 +6694,28 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="N28" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O28" s="3">
         <v>180</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="S28" s="3" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="X28" s="13"/>
       <c r="Y28" s="14"/>
@@ -6736,17 +6734,14 @@
         <v>20040101</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C29" s="34"/>
-      <c r="F29" s="3" t="s">
-        <v>315</v>
-      </c>
       <c r="G29" s="5" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>99</v>
@@ -6755,34 +6750,34 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>487</v>
+        <v>467</v>
       </c>
       <c r="N29" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O29" s="3">
         <v>180</v>
       </c>
       <c r="Q29" s="3" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="S29" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T29" s="3" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="V29" s="3" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="W29" s="8" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="X29" s="13"/>
       <c r="Y29" s="14"/>
@@ -6801,38 +6796,38 @@
         <v>20180101</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="C30" s="34"/>
       <c r="G30" s="5" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="N30" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O30" s="3">
         <v>180</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>64</v>
@@ -6841,14 +6836,14 @@
         <v>170</v>
       </c>
       <c r="W30" s="8" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="X30" s="13"/>
       <c r="Y30" s="14"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="14"/>
       <c r="AB30" s="11" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
@@ -6856,38 +6851,38 @@
         <v>20180201</v>
       </c>
       <c r="B31" s="34" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>99</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M31" s="3"/>
       <c r="N31" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O31" s="5" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="T31" s="5" t="s">
         <v>170</v>
@@ -6895,16 +6890,16 @@
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="9" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="AA31" s="14" t="s">
         <v>49</v>
       </c>
       <c r="AB31" s="11" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
@@ -6912,53 +6907,53 @@
         <v>20180301</v>
       </c>
       <c r="B32" s="34" t="s">
+        <v>337</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>348</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>359</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>98</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M32" s="3"/>
       <c r="N32" s="5" t="s">
-        <v>491</v>
+        <v>471</v>
       </c>
       <c r="O32" s="5" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="U32" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="V32" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="V32" s="3" t="s">
-        <v>398</v>
-      </c>
       <c r="W32" s="9" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -7004,97 +6999,97 @@
     </row>
     <row r="2" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F3" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="H3" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="I3" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="K3" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="L3" s="17" t="s">
         <v>225</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>217</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>57</v>
